--- a/natmiOut/OldD4/LR-pairs_lrc2p/Cdh1-Itgb7.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Cdh1-Itgb7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,12 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.162200835793161</v>
+        <v>0.3969536666666666</v>
       </c>
       <c r="H2">
-        <v>0.162200835793161</v>
+        <v>1.190861</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.4375843187631858</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.4731252557598102</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.05838299811536</v>
+        <v>1.138751333333333</v>
       </c>
       <c r="N2">
-        <v>1.05838299811536</v>
+        <v>3.416253999999999</v>
       </c>
       <c r="O2">
-        <v>0.05297308308974456</v>
+        <v>0.03958856402477573</v>
       </c>
       <c r="P2">
-        <v>0.05297308308974456</v>
+        <v>0.04010995698151244</v>
       </c>
       <c r="Q2">
-        <v>0.1716706068835829</v>
+        <v>0.4520315171882222</v>
       </c>
       <c r="R2">
-        <v>0.1716706068835829</v>
+        <v>4.068283654694</v>
       </c>
       <c r="S2">
-        <v>0.05297308308974456</v>
+        <v>0.01732333481959425</v>
       </c>
       <c r="T2">
-        <v>0.05297308308974456</v>
+        <v>0.01897703365539306</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.162200835793161</v>
+        <v>0.3969536666666666</v>
       </c>
       <c r="H3">
-        <v>0.162200835793161</v>
+        <v>1.190861</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.4375843187631858</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.4731252557598102</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.98364687251626</v>
+        <v>0.9845453333333333</v>
       </c>
       <c r="N3">
-        <v>0.98364687251626</v>
+        <v>2.953636</v>
       </c>
       <c r="O3">
-        <v>0.0492324683990169</v>
+        <v>0.03422760950792373</v>
       </c>
       <c r="P3">
-        <v>0.0492324683990169</v>
+        <v>0.03467839712710076</v>
       </c>
       <c r="Q3">
-        <v>0.1595483448474663</v>
+        <v>0.3908188800662222</v>
       </c>
       <c r="R3">
-        <v>0.1595483448474663</v>
+        <v>3.517369920596</v>
       </c>
       <c r="S3">
-        <v>0.0492324683990169</v>
+        <v>0.01497746518941715</v>
       </c>
       <c r="T3">
-        <v>0.0492324683990169</v>
+        <v>0.01640722551009981</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.162200835793161</v>
+        <v>0.3969536666666666</v>
       </c>
       <c r="H4">
-        <v>0.162200835793161</v>
+        <v>1.190861</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.4375843187631858</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.4731252557598102</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.77343499123581</v>
+        <v>11.038733</v>
       </c>
       <c r="N4">
-        <v>6.77343499123581</v>
+        <v>33.116199</v>
       </c>
       <c r="O4">
-        <v>0.3390169109222678</v>
+        <v>0.3837603305751604</v>
       </c>
       <c r="P4">
-        <v>0.3390169109222678</v>
+        <v>0.3888145662708937</v>
       </c>
       <c r="Q4">
-        <v>1.09865681676909</v>
+        <v>4.381865539704333</v>
       </c>
       <c r="R4">
-        <v>1.09865681676909</v>
+        <v>39.436789857339</v>
       </c>
       <c r="S4">
-        <v>0.3390169109222678</v>
+        <v>0.1679275028230665</v>
       </c>
       <c r="T4">
-        <v>0.3390169109222678</v>
+        <v>0.1839579911100563</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.162200835793161</v>
+        <v>0.3969536666666666</v>
       </c>
       <c r="H5">
-        <v>0.162200835793161</v>
+        <v>1.190861</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.4375843187631858</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.4731252557598102</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.088064927354</v>
+        <v>14.480881</v>
       </c>
       <c r="N5">
-        <v>10.088064927354</v>
+        <v>43.442643</v>
       </c>
       <c r="O5">
-        <v>0.5049173149635329</v>
+        <v>0.5034262246925947</v>
       </c>
       <c r="P5">
-        <v>0.5049173149635329</v>
+        <v>0.510056495182502</v>
       </c>
       <c r="Q5">
-        <v>1.636292562752493</v>
+        <v>5.748238809513667</v>
       </c>
       <c r="R5">
-        <v>1.636292562752493</v>
+        <v>51.734149285623</v>
       </c>
       <c r="S5">
-        <v>0.5049173149635329</v>
+        <v>0.2202914215796315</v>
       </c>
       <c r="T5">
-        <v>0.5049173149635329</v>
+        <v>0.2413206097351737</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,681 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.3969536666666666</v>
+      </c>
+      <c r="H6">
+        <v>1.190861</v>
+      </c>
+      <c r="I6">
+        <v>0.4375843187631858</v>
+      </c>
+      <c r="J6">
+        <v>0.4731252557598102</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1.121743</v>
+      </c>
+      <c r="N6">
+        <v>2.243486</v>
+      </c>
+      <c r="O6">
+        <v>0.03899727119954546</v>
+      </c>
+      <c r="P6">
+        <v>0.02634058443799127</v>
+      </c>
+      <c r="Q6">
+        <v>0.4452799969076666</v>
+      </c>
+      <c r="R6">
+        <v>2.671679981446</v>
+      </c>
+      <c r="S6">
+        <v>0.01706459435147631</v>
+      </c>
+      <c r="T6">
+        <v>0.0124623957490875</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.3057606666666667</v>
+      </c>
+      <c r="H7">
+        <v>0.917282</v>
+      </c>
+      <c r="I7">
+        <v>0.3370571536759812</v>
+      </c>
+      <c r="J7">
+        <v>0.3644331965308044</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1.138751333333333</v>
+      </c>
+      <c r="N7">
+        <v>3.416253999999999</v>
+      </c>
+      <c r="O7">
+        <v>0.03958856402477573</v>
+      </c>
+      <c r="P7">
+        <v>0.04010995698151244</v>
+      </c>
+      <c r="Q7">
+        <v>0.3481853668475555</v>
+      </c>
+      <c r="R7">
+        <v>3.133668301628</v>
+      </c>
+      <c r="S7">
+        <v>0.01334360870831025</v>
+      </c>
+      <c r="T7">
+        <v>0.01461739983548563</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.3057606666666667</v>
+      </c>
+      <c r="H8">
+        <v>0.917282</v>
+      </c>
+      <c r="I8">
+        <v>0.3370571536759812</v>
+      </c>
+      <c r="J8">
+        <v>0.3644331965308044</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.9845453333333333</v>
+      </c>
+      <c r="N8">
+        <v>2.953636</v>
+      </c>
+      <c r="O8">
+        <v>0.03422760950792373</v>
+      </c>
+      <c r="P8">
+        <v>0.03467839712710076</v>
+      </c>
+      <c r="Q8">
+        <v>0.3010352374835555</v>
+      </c>
+      <c r="R8">
+        <v>2.709317137352</v>
+      </c>
+      <c r="S8">
+        <v>0.01153666063787372</v>
+      </c>
+      <c r="T8">
+        <v>0.012637959115594</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.3057606666666667</v>
+      </c>
+      <c r="H9">
+        <v>0.917282</v>
+      </c>
+      <c r="I9">
+        <v>0.3370571536759812</v>
+      </c>
+      <c r="J9">
+        <v>0.3644331965308044</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>11.038733</v>
+      </c>
+      <c r="N9">
+        <v>33.116199</v>
+      </c>
+      <c r="O9">
+        <v>0.3837603305751604</v>
+      </c>
+      <c r="P9">
+        <v>0.3888145662708937</v>
+      </c>
+      <c r="Q9">
+        <v>3.375210361235334</v>
+      </c>
+      <c r="R9">
+        <v>30.376893251118</v>
+      </c>
+      <c r="S9">
+        <v>0.1293491647174172</v>
+      </c>
+      <c r="T9">
+        <v>0.1416969352438401</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.3057606666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.917282</v>
+      </c>
+      <c r="I10">
+        <v>0.3370571536759812</v>
+      </c>
+      <c r="J10">
+        <v>0.3644331965308044</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>14.480881</v>
+      </c>
+      <c r="N10">
+        <v>43.442643</v>
+      </c>
+      <c r="O10">
+        <v>0.5034262246925947</v>
+      </c>
+      <c r="P10">
+        <v>0.510056495182502</v>
+      </c>
+      <c r="Q10">
+        <v>4.427683828480667</v>
+      </c>
+      <c r="R10">
+        <v>39.849154456326</v>
+      </c>
+      <c r="S10">
+        <v>0.1696834103807309</v>
+      </c>
+      <c r="T10">
+        <v>0.185881518950658</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.3057606666666667</v>
+      </c>
+      <c r="H11">
+        <v>0.917282</v>
+      </c>
+      <c r="I11">
+        <v>0.3370571536759812</v>
+      </c>
+      <c r="J11">
+        <v>0.3644331965308044</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.121743</v>
+      </c>
+      <c r="N11">
+        <v>2.243486</v>
+      </c>
+      <c r="O11">
+        <v>0.03899727119954546</v>
+      </c>
+      <c r="P11">
+        <v>0.02634058443799127</v>
+      </c>
+      <c r="Q11">
+        <v>0.3429848875086667</v>
+      </c>
+      <c r="R11">
+        <v>2.057909325052</v>
+      </c>
+      <c r="S11">
+        <v>0.01314430923164911</v>
+      </c>
+      <c r="T11">
+        <v>0.00959938338522672</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.2044335</v>
+      </c>
+      <c r="H12">
+        <v>0.408867</v>
+      </c>
+      <c r="I12">
+        <v>0.225358527560833</v>
+      </c>
+      <c r="J12">
+        <v>0.1624415477093853</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1.138751333333333</v>
+      </c>
+      <c r="N12">
+        <v>3.416253999999999</v>
+      </c>
+      <c r="O12">
+        <v>0.03958856402477573</v>
+      </c>
+      <c r="P12">
+        <v>0.04010995698151244</v>
+      </c>
+      <c r="Q12">
+        <v>0.232798920703</v>
+      </c>
+      <c r="R12">
+        <v>1.396793524218</v>
+      </c>
+      <c r="S12">
+        <v>0.008921620496871225</v>
+      </c>
+      <c r="T12">
+        <v>0.006515523490633746</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.2044335</v>
+      </c>
+      <c r="H13">
+        <v>0.408867</v>
+      </c>
+      <c r="I13">
+        <v>0.225358527560833</v>
+      </c>
+      <c r="J13">
+        <v>0.1624415477093853</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.9845453333333333</v>
+      </c>
+      <c r="N13">
+        <v>2.953636</v>
+      </c>
+      <c r="O13">
+        <v>0.03422760950792373</v>
+      </c>
+      <c r="P13">
+        <v>0.03467839712710076</v>
+      </c>
+      <c r="Q13">
+        <v>0.201274048402</v>
+      </c>
+      <c r="R13">
+        <v>1.207644290412</v>
+      </c>
+      <c r="S13">
+        <v>0.007713483680632861</v>
+      </c>
+      <c r="T13">
+        <v>0.00563321250140695</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
         <v>20</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0.162200835793161</v>
-      </c>
-      <c r="H6">
-        <v>0.162200835793161</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>1.07610772446257</v>
-      </c>
-      <c r="N6">
-        <v>1.07610772446257</v>
-      </c>
-      <c r="O6">
-        <v>0.05386022262543786</v>
-      </c>
-      <c r="P6">
-        <v>0.05386022262543786</v>
-      </c>
-      <c r="Q6">
-        <v>0.1745455723113055</v>
-      </c>
-      <c r="R6">
-        <v>0.1745455723113055</v>
-      </c>
-      <c r="S6">
-        <v>0.05386022262543786</v>
-      </c>
-      <c r="T6">
-        <v>0.05386022262543786</v>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.2044335</v>
+      </c>
+      <c r="H14">
+        <v>0.408867</v>
+      </c>
+      <c r="I14">
+        <v>0.225358527560833</v>
+      </c>
+      <c r="J14">
+        <v>0.1624415477093853</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>11.038733</v>
+      </c>
+      <c r="N14">
+        <v>33.116199</v>
+      </c>
+      <c r="O14">
+        <v>0.3837603305751604</v>
+      </c>
+      <c r="P14">
+        <v>0.3888145662708937</v>
+      </c>
+      <c r="Q14">
+        <v>2.2566868227555</v>
+      </c>
+      <c r="R14">
+        <v>13.540120936533</v>
+      </c>
+      <c r="S14">
+        <v>0.08648366303467669</v>
+      </c>
+      <c r="T14">
+        <v>0.06315963991699734</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.2044335</v>
+      </c>
+      <c r="H15">
+        <v>0.408867</v>
+      </c>
+      <c r="I15">
+        <v>0.225358527560833</v>
+      </c>
+      <c r="J15">
+        <v>0.1624415477093853</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>14.480881</v>
+      </c>
+      <c r="N15">
+        <v>43.442643</v>
+      </c>
+      <c r="O15">
+        <v>0.5034262246925947</v>
+      </c>
+      <c r="P15">
+        <v>0.510056495182502</v>
+      </c>
+      <c r="Q15">
+        <v>2.9603771859135</v>
+      </c>
+      <c r="R15">
+        <v>17.762263115481</v>
+      </c>
+      <c r="S15">
+        <v>0.1134513927322322</v>
+      </c>
+      <c r="T15">
+        <v>0.08285436649667027</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.2044335</v>
+      </c>
+      <c r="H16">
+        <v>0.408867</v>
+      </c>
+      <c r="I16">
+        <v>0.225358527560833</v>
+      </c>
+      <c r="J16">
+        <v>0.1624415477093853</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.121743</v>
+      </c>
+      <c r="N16">
+        <v>2.243486</v>
+      </c>
+      <c r="O16">
+        <v>0.03899727119954546</v>
+      </c>
+      <c r="P16">
+        <v>0.02634058443799127</v>
+      </c>
+      <c r="Q16">
+        <v>0.2293218475905</v>
+      </c>
+      <c r="R16">
+        <v>0.9172873903619999</v>
+      </c>
+      <c r="S16">
+        <v>0.008788367616420047</v>
+      </c>
+      <c r="T16">
+        <v>0.004278805303677051</v>
       </c>
     </row>
   </sheetData>
